--- a/data/trans_orig/P74B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>8246</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3734</v>
+        <v>3699</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14151</v>
+        <v>15201</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08507652755101602</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03852686763503415</v>
+        <v>0.03817049870748503</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1460091305331886</v>
+        <v>0.1568444988598637</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -764,19 +764,19 @@
         <v>33150</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29135</v>
+        <v>28918</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35159</v>
+        <v>35156</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9205049863299845</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8090184662233079</v>
+        <v>0.802990461680486</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9762959986507368</v>
+        <v>0.9761992608291267</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -785,19 +785,19 @@
         <v>41396</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31046</v>
+        <v>31661</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52601</v>
+        <v>51825</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3114040244001001</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2335458512327741</v>
+        <v>0.2381750879652846</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3956988929328737</v>
+        <v>0.3898592130252769</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>88674</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>82769</v>
+        <v>81719</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>93186</v>
+        <v>93221</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.914923472448984</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8539908694668115</v>
+        <v>0.8431555011401364</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9614731323649659</v>
+        <v>0.961829501292515</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -835,19 +835,19 @@
         <v>2863</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6878</v>
+        <v>7095</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07949501367001552</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02370400134926319</v>
+        <v>0.02380073917087332</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1909815337766924</v>
+        <v>0.1970095383195136</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>95</v>
@@ -856,19 +856,19 @@
         <v>91537</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80332</v>
+        <v>81108</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>101887</v>
+        <v>101272</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6885959755998999</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6043011070671263</v>
+        <v>0.6101407869747231</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7664541487672258</v>
+        <v>0.7618249120347153</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>11885</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6214</v>
+        <v>5691</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21225</v>
+        <v>21106</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04997416367433388</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02612816049758024</v>
+        <v>0.02392796839105117</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08924561689303173</v>
+        <v>0.08874460075945</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -981,19 +981,19 @@
         <v>71702</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63267</v>
+        <v>62520</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78387</v>
+        <v>78606</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7840054464400206</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6917788159769328</v>
+        <v>0.6836022524568232</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8571011920391334</v>
+        <v>0.8594994883722734</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -1002,19 +1002,19 @@
         <v>83588</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68099</v>
+        <v>67972</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100962</v>
+        <v>99850</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2538434405046172</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2068068692673008</v>
+        <v>0.2064207306261037</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3066071300823514</v>
+        <v>0.3032300391232566</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>225947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>216607</v>
+        <v>216726</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>231618</v>
+        <v>232141</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9500258363256662</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9107543831069684</v>
+        <v>0.9112553992405502</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9738718395024197</v>
+        <v>0.9760720316089488</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -1052,19 +1052,19 @@
         <v>19754</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13069</v>
+        <v>12850</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28189</v>
+        <v>28936</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2159945535599795</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1428988079608669</v>
+        <v>0.1405005116277267</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3082211840230674</v>
+        <v>0.316397747543177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>233</v>
@@ -1073,19 +1073,19 @@
         <v>245700</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>228326</v>
+        <v>229438</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>261189</v>
+        <v>261316</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7461565594953828</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6933928699176486</v>
+        <v>0.6967699608767434</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.793193130732699</v>
+        <v>0.7935792693738963</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>4997</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2007</v>
+        <v>1890</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12662</v>
+        <v>11040</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03430770015529507</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01377939655259353</v>
+        <v>0.01297689213499699</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08693143094607889</v>
+        <v>0.07579802733803515</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -1198,19 +1198,19 @@
         <v>48421</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41953</v>
+        <v>42498</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52534</v>
+        <v>53174</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.847335967476526</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7341546026603649</v>
+        <v>0.7436827390992541</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9193079328310734</v>
+        <v>0.9305059204951293</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -1219,19 +1219,19 @@
         <v>53418</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41589</v>
+        <v>41828</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66634</v>
+        <v>67053</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2634082661137736</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2050792037317134</v>
+        <v>0.2062567841051849</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3285775116505542</v>
+        <v>0.330644563014971</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>140654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>132989</v>
+        <v>134611</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>143644</v>
+        <v>143761</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9656922998447049</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9130685690539215</v>
+        <v>0.9242019726619648</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9862206034474066</v>
+        <v>0.9870231078650029</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1269,19 +1269,19 @@
         <v>8724</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4611</v>
+        <v>3971</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15192</v>
+        <v>14647</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.152664032523474</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0806920671689267</v>
+        <v>0.0694940795048706</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2658453973396352</v>
+        <v>0.2563172609007457</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>149</v>
@@ -1290,19 +1290,19 @@
         <v>149378</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>136162</v>
+        <v>135743</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>161207</v>
+        <v>160968</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7365917338862265</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6714224883494458</v>
+        <v>0.669355436985029</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7949207962682867</v>
+        <v>0.7937432158948151</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>20002</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13465</v>
+        <v>13164</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29260</v>
+        <v>28730</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1362540741092864</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09172677344282511</v>
+        <v>0.0896747841122382</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1993258761845091</v>
+        <v>0.1957106992911179</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -1415,19 +1415,19 @@
         <v>58512</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51483</v>
+        <v>51519</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63523</v>
+        <v>63407</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8375063220882135</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7369083572257069</v>
+        <v>0.7374179397229734</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.909231505415099</v>
+        <v>0.9075775639226191</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -1436,19 +1436,19 @@
         <v>78513</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64096</v>
+        <v>66097</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91124</v>
+        <v>93854</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.362377706835231</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2958345319405246</v>
+        <v>0.305069409811735</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4205831633388308</v>
+        <v>0.4331829555619663</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>126795</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>117537</v>
+        <v>118067</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>133332</v>
+        <v>133633</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8637459258907135</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8006741238154909</v>
+        <v>0.804289300708882</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9082732265571754</v>
+        <v>0.9103252158877616</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1486,19 +1486,19 @@
         <v>11352</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6341</v>
+        <v>6457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18381</v>
+        <v>18345</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1624936779117865</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09076849458490112</v>
+        <v>0.09242243607738081</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2630916427742933</v>
+        <v>0.2625820602770262</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>145</v>
@@ -1507,19 +1507,19 @@
         <v>138148</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>125537</v>
+        <v>122807</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152565</v>
+        <v>150564</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.637622293164769</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5794168366611693</v>
+        <v>0.5668170444380334</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7041654680594754</v>
+        <v>0.6949305901882649</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>9212</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4448</v>
+        <v>4464</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16994</v>
+        <v>16937</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1204977468633616</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05817924543547863</v>
+        <v>0.0583898532493491</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2222815505397378</v>
+        <v>0.221533453574747</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -1632,19 +1632,19 @@
         <v>38752</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31930</v>
+        <v>31958</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42896</v>
+        <v>43122</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8423106204562782</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6940319456339838</v>
+        <v>0.6946226379358881</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.932376944395497</v>
+        <v>0.9373006472309231</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -1653,19 +1653,19 @@
         <v>47965</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38158</v>
+        <v>36699</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58717</v>
+        <v>57862</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3916780782273481</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.311591932399073</v>
+        <v>0.2996800579481516</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4794761262356689</v>
+        <v>0.4724936541360253</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>67241</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59459</v>
+        <v>59516</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>72005</v>
+        <v>71989</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8795022531366384</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7777184494602621</v>
+        <v>0.7784665464252546</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9418207545645205</v>
+        <v>0.941610146750651</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1703,19 +1703,19 @@
         <v>7255</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3111</v>
+        <v>2885</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14077</v>
+        <v>14049</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1576893795437217</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06762305560450296</v>
+        <v>0.06269935276907695</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3059680543660162</v>
+        <v>0.3053773620641119</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>75</v>
@@ -1724,19 +1724,19 @@
         <v>74495</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>63743</v>
+        <v>64598</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>84302</v>
+        <v>85761</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6083219217726519</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5205238737643308</v>
+        <v>0.5275063458639745</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6884080676009267</v>
+        <v>0.7003199420518482</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>3910</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>952</v>
+        <v>977</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8797</v>
+        <v>8929</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0289563970971837</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007052102018571809</v>
+        <v>0.007232191578724017</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06514601265809436</v>
+        <v>0.06612586894669104</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -1849,19 +1849,19 @@
         <v>50116</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42738</v>
+        <v>43310</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55025</v>
+        <v>55055</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8341178345555161</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7113184572644765</v>
+        <v>0.7208442875384591</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.915813110905536</v>
+        <v>0.91631312950546</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -1870,19 +1870,19 @@
         <v>54026</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41541</v>
+        <v>42619</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65629</v>
+        <v>67143</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.276891867521321</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2129041944335985</v>
+        <v>0.2184290511531642</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3363613045859765</v>
+        <v>0.3441184828765551</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>131124</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>126237</v>
+        <v>126105</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>134082</v>
+        <v>134057</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9710436029028163</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9348539873419056</v>
+        <v>0.933874131053309</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9929478979814282</v>
+        <v>0.992767808421276</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -1920,19 +1920,19 @@
         <v>9967</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5058</v>
+        <v>5028</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17345</v>
+        <v>16773</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1658821654444839</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08418688909446402</v>
+        <v>0.08368687049454003</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2886815427355235</v>
+        <v>0.2791557124615409</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>138</v>
@@ -1941,19 +1941,19 @@
         <v>141090</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>129487</v>
+        <v>127973</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>153575</v>
+        <v>152497</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.723108132478679</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.663638695414023</v>
+        <v>0.6558815171234452</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7870958055664015</v>
+        <v>0.7815709488468361</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>22127</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14451</v>
+        <v>14125</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32880</v>
+        <v>33178</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08376662695060383</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05470890889566701</v>
+        <v>0.05347495434159589</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.124475925111804</v>
+        <v>0.1256043512053055</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>95</v>
@@ -2066,19 +2066,19 @@
         <v>95526</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>85352</v>
+        <v>84939</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102564</v>
+        <v>103356</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8111273551811016</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7247401877736236</v>
+        <v>0.7212345859997557</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8708947067176466</v>
+        <v>0.8776125599757175</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>117</v>
@@ -2087,19 +2087,19 @@
         <v>117652</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>100719</v>
+        <v>99288</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>138646</v>
+        <v>135038</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3080564393568599</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2637178284524304</v>
+        <v>0.2599721706769874</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3630242656692154</v>
+        <v>0.3535772764202936</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>242022</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>231269</v>
+        <v>230971</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>249698</v>
+        <v>250024</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9162333730493961</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8755240748881959</v>
+        <v>0.8743956487946944</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.945291091104333</v>
+        <v>0.9465250456584041</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>21</v>
@@ -2137,19 +2137,19 @@
         <v>22243</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15205</v>
+        <v>14413</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32417</v>
+        <v>32830</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1888726448188984</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1291052932823536</v>
+        <v>0.1223874400242823</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2752598122263774</v>
+        <v>0.2787654140002439</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>261</v>
@@ -2158,19 +2158,19 @@
         <v>264266</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>243272</v>
+        <v>246880</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>281199</v>
+        <v>282630</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6919435606431401</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6369757343307847</v>
+        <v>0.6464227235797064</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.736282171547569</v>
+        <v>0.7400278293230128</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>26721</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17988</v>
+        <v>17843</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38142</v>
+        <v>38672</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08545968181919841</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.057528279655177</v>
+        <v>0.05706549868330755</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1219856805250043</v>
+        <v>0.1236805299416147</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>106</v>
@@ -2283,19 +2283,19 @@
         <v>111235</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>101753</v>
+        <v>102221</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>118944</v>
+        <v>120247</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8317304490236141</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7608350030666001</v>
+        <v>0.7643353553702769</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8893705588401213</v>
+        <v>0.8991184814293901</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>133</v>
@@ -2304,19 +2304,19 @@
         <v>137956</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>119212</v>
+        <v>119710</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>158787</v>
+        <v>159878</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3090299451433413</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2670413639933842</v>
+        <v>0.2681585484216649</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3556918991091362</v>
+        <v>0.3581359062095449</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>285956</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>274535</v>
+        <v>274005</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>294689</v>
+        <v>294834</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9145403181808016</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8780143194749956</v>
+        <v>0.8763194700583851</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.942471720344823</v>
+        <v>0.9429345013166923</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -2354,19 +2354,19 @@
         <v>22504</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14795</v>
+        <v>13492</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31986</v>
+        <v>31518</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1682695509763859</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1106294411598786</v>
+        <v>0.10088151857061</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2391649969333999</v>
+        <v>0.2356646446297233</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>303</v>
@@ -2375,19 +2375,19 @@
         <v>308460</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>287629</v>
+        <v>286538</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>327204</v>
+        <v>326706</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6909700548566587</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6443081008908639</v>
+        <v>0.6418640937904552</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.732958636006616</v>
+        <v>0.7318414515783354</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>107100</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>87177</v>
+        <v>88865</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>126500</v>
+        <v>128825</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07566188670467343</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0615872000441982</v>
+        <v>0.06277946939149749</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08936730502494225</v>
+        <v>0.09100981288077629</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>505</v>
@@ -2500,19 +2500,19 @@
         <v>507414</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>485398</v>
+        <v>487304</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>525318</v>
+        <v>525635</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8290043296065239</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7930356921815003</v>
+        <v>0.7961499978401021</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8582567288181515</v>
+        <v>0.8587744168140747</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>613</v>
@@ -2521,19 +2521,19 @@
         <v>614514</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>575342</v>
+        <v>569277</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>658371</v>
+        <v>655463</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.303076285239454</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2837570956335702</v>
+        <v>0.2807654680396047</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3247063214644998</v>
+        <v>0.3232721470278784</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>1308412</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1289012</v>
+        <v>1286687</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1328335</v>
+        <v>1326647</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9243381132953266</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9106326949750573</v>
+        <v>0.908990187119224</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.938412799955801</v>
+        <v>0.9372205306085025</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>103</v>
@@ -2571,19 +2571,19 @@
         <v>104662</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>86758</v>
+        <v>86441</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>126678</v>
+        <v>124772</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1709956703934761</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1417432711818485</v>
+        <v>0.1412255831859251</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2069643078184997</v>
+        <v>0.2038500021598977</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1399</v>
@@ -2592,19 +2592,19 @@
         <v>1413074</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1369217</v>
+        <v>1372125</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1452246</v>
+        <v>1458311</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.696923714760546</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6752936785355004</v>
+        <v>0.6767278529721219</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7162429043664298</v>
+        <v>0.7192345319603953</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>25306</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16488</v>
+        <v>17184</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35088</v>
+        <v>36765</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2798508257781041</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1823419344352636</v>
+        <v>0.1900379376696272</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3880378350058826</v>
+        <v>0.4065834534548629</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -2961,19 +2961,19 @@
         <v>46341</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36472</v>
+        <v>37435</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53110</v>
+        <v>53765</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6951898068145953</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5471405706077657</v>
+        <v>0.5615755668826705</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7967315830163856</v>
+        <v>0.8065522615356501</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -2982,19 +2982,19 @@
         <v>71646</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58961</v>
+        <v>57658</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86535</v>
+        <v>85054</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.45610231071084</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3753484558135043</v>
+        <v>0.3670501473636986</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5508815770633211</v>
+        <v>0.5414556013255969</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>65119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55337</v>
+        <v>53660</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73937</v>
+        <v>73241</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7201491742218959</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6119621649941174</v>
+        <v>0.5934165465451372</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8176580655647363</v>
+        <v>0.8099620623303728</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -3032,19 +3032,19 @@
         <v>20319</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13550</v>
+        <v>12895</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30188</v>
+        <v>29225</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3048101931854046</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2032684169836144</v>
+        <v>0.1934477384643499</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4528594293922341</v>
+        <v>0.4384244331173297</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>80</v>
@@ -3053,19 +3053,19 @@
         <v>85438</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>70549</v>
+        <v>72030</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98123</v>
+        <v>99426</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.54389768928916</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4491184229366789</v>
+        <v>0.4585443986744031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6246515441864956</v>
+        <v>0.6329498526363012</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>18662</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11296</v>
+        <v>10989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31475</v>
+        <v>30147</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08336876140309483</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05046088525071556</v>
+        <v>0.04908886987785635</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1406041046399291</v>
+        <v>0.1346712295736766</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -3178,19 +3178,19 @@
         <v>99659</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>87267</v>
+        <v>88251</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>110029</v>
+        <v>111586</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6846822365932133</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5995494217434892</v>
+        <v>0.606303843084827</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7559265267696179</v>
+        <v>0.7666262131550564</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -3199,19 +3199,19 @@
         <v>118321</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>99629</v>
+        <v>100503</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>137993</v>
+        <v>138264</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3202986503360059</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2696985684900376</v>
+        <v>0.2720643932395982</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3735503611819686</v>
+        <v>0.3742849134111578</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>205192</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>192379</v>
+        <v>193707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>212558</v>
+        <v>212865</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9166312385969052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8593958953600712</v>
+        <v>0.8653287704263235</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9495391147492844</v>
+        <v>0.9509111301221437</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -3249,19 +3249,19 @@
         <v>45896</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35526</v>
+        <v>33969</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>58288</v>
+        <v>57304</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3153177634067867</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2440734732303817</v>
+        <v>0.2333737868449437</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4004505782565105</v>
+        <v>0.393696156915173</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>234</v>
@@ -3270,19 +3270,19 @@
         <v>251088</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>231416</v>
+        <v>231145</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>269780</v>
+        <v>268906</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6797013496639941</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6264496388180316</v>
+        <v>0.6257150865888421</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7303014315099624</v>
+        <v>0.7279356067604017</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>13047</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7095</v>
+        <v>7973</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20984</v>
+        <v>22414</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09344100275258826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05081337793416595</v>
+        <v>0.05710379875803775</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1502886048490857</v>
+        <v>0.1605325199847424</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -3395,19 +3395,19 @@
         <v>47678</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38493</v>
+        <v>38791</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54417</v>
+        <v>54905</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6967757406138865</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5625363558575842</v>
+        <v>0.5668983036194765</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7952621114619707</v>
+        <v>0.8023815614320474</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -3416,19 +3416,19 @@
         <v>60725</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47443</v>
+        <v>47873</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>74760</v>
+        <v>75420</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.291873206536065</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2280344590504491</v>
+        <v>0.2301030555341874</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3593348709670922</v>
+        <v>0.3625075275174194</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>126578</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>118641</v>
+        <v>117211</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>132530</v>
+        <v>131652</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9065589972474117</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8497113951509143</v>
+        <v>0.8394674800152582</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.949186622065834</v>
+        <v>0.9428962012419623</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -3466,19 +3466,19 @@
         <v>20749</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14010</v>
+        <v>13522</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29934</v>
+        <v>29636</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3032242593861135</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2047378885380304</v>
+        <v>0.1976184385679527</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4374636441424159</v>
+        <v>0.4331016963805236</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>143</v>
@@ -3487,19 +3487,19 @@
         <v>147327</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>133292</v>
+        <v>132632</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>160609</v>
+        <v>160179</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7081267934639349</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6406651290329076</v>
+        <v>0.6374924724825807</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7719655409495505</v>
+        <v>0.7698969444658129</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>27046</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17990</v>
+        <v>18779</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37608</v>
+        <v>38666</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2041821387358861</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1358133447457777</v>
+        <v>0.1417664055017876</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.283918973186589</v>
+        <v>0.2919060985466105</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -3612,19 +3612,19 @@
         <v>74541</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65832</v>
+        <v>65100</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81142</v>
+        <v>81378</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7861899447739651</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6943328110779019</v>
+        <v>0.6866096851989654</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8558149664989871</v>
+        <v>0.8583020394165478</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>95</v>
@@ -3633,19 +3633,19 @@
         <v>101588</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85807</v>
+        <v>87367</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>117796</v>
+        <v>117339</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4469805987840232</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3775480754347127</v>
+        <v>0.384409133197614</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5182962181944651</v>
+        <v>0.5162861531344908</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>105416</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94854</v>
+        <v>93796</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>114472</v>
+        <v>113683</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7958178612641138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7160810268134108</v>
+        <v>0.7080939014533894</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8641866552542222</v>
+        <v>0.8582335944982123</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -3683,19 +3683,19 @@
         <v>20272</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13671</v>
+        <v>13435</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28981</v>
+        <v>29713</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2138100552260349</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1441850335010132</v>
+        <v>0.1416979605834515</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3056671889220983</v>
+        <v>0.313390314801034</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>117</v>
@@ -3704,19 +3704,19 @@
         <v>125687</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>109479</v>
+        <v>109936</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>141468</v>
+        <v>139908</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5530194012159767</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4817037818055349</v>
+        <v>0.4837138468655092</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6224519245652873</v>
+        <v>0.6155908668023861</v>
       </c>
     </row>
     <row r="15">
@@ -3808,19 +3808,19 @@
         <v>13246</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7496</v>
+        <v>6955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22628</v>
+        <v>22542</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1613035435760199</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09128210432478161</v>
+        <v>0.08469833969585111</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2755529025917938</v>
+        <v>0.2745125716531647</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -3829,19 +3829,19 @@
         <v>43019</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34782</v>
+        <v>35771</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49753</v>
+        <v>50630</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6701876767451964</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5418563793647772</v>
+        <v>0.5572702115881933</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7750964133217118</v>
+        <v>0.7887471615977543</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -3850,19 +3850,19 @@
         <v>56265</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44858</v>
+        <v>44727</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68906</v>
+        <v>68530</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3845676643129147</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3066017247584981</v>
+        <v>0.3057045928981952</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4709655108967097</v>
+        <v>0.4684011787078822</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3879,19 @@
         <v>68871</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59489</v>
+        <v>59575</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74621</v>
+        <v>75162</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8386964564239802</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7244470974082062</v>
+        <v>0.7254874283468351</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9087178956752183</v>
+        <v>0.9153016603041488</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -3900,19 +3900,19 @@
         <v>21171</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14437</v>
+        <v>13560</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29408</v>
+        <v>28419</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3298123232548036</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2249035866782882</v>
+        <v>0.211252838402246</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4581436206352226</v>
+        <v>0.442729788411807</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>85</v>
@@ -3921,19 +3921,19 @@
         <v>90042</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>77401</v>
+        <v>77777</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>101449</v>
+        <v>101580</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6154323356870852</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5290344891032903</v>
+        <v>0.531598821292118</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.693398275241502</v>
+        <v>0.6942954071018055</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>11114</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5748</v>
+        <v>5878</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18155</v>
+        <v>18738</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09430456537879864</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04877416842175175</v>
+        <v>0.04987902827917787</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1540516070634028</v>
+        <v>0.1590037939040278</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -4046,19 +4046,19 @@
         <v>51073</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41660</v>
+        <v>41737</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60716</v>
+        <v>60109</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5802968696103137</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4733499645915595</v>
+        <v>0.4742227447420073</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6898571792005276</v>
+        <v>0.6829588447390289</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -4067,19 +4067,19 @@
         <v>62187</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48948</v>
+        <v>49963</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>74966</v>
+        <v>76710</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3020832051662629</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.237776715351952</v>
+        <v>0.2427044925270282</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3641604636298156</v>
+        <v>0.3726321411747116</v>
       </c>
     </row>
     <row r="20">
@@ -4096,19 +4096,19 @@
         <v>106733</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>99692</v>
+        <v>99109</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>112099</v>
+        <v>111969</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9056954346212014</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8459483929365972</v>
+        <v>0.8409962060959718</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9512258315782479</v>
+        <v>0.950120971720822</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -4117,19 +4117,19 @@
         <v>36939</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27296</v>
+        <v>27903</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46352</v>
+        <v>46275</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4197031303896863</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3101428207994726</v>
+        <v>0.3170411552609711</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5266500354084407</v>
+        <v>0.5257772552579929</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>139</v>
@@ -4138,19 +4138,19 @@
         <v>143672</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>130893</v>
+        <v>129149</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>156911</v>
+        <v>155896</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.697916794833737</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6358395363701848</v>
+        <v>0.6273678588252879</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7622232846480481</v>
+        <v>0.7572955074729714</v>
       </c>
     </row>
     <row r="21">
@@ -4242,19 +4242,19 @@
         <v>34767</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23208</v>
+        <v>24137</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46809</v>
+        <v>47424</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1319952680542955</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08810919808844872</v>
+        <v>0.09163678773382068</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1777119152187933</v>
+        <v>0.1800465311202837</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>109</v>
@@ -4263,19 +4263,19 @@
         <v>120073</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>106039</v>
+        <v>105646</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>132462</v>
+        <v>132344</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6670487882410661</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5890837136573815</v>
+        <v>0.5869045523290966</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7358729479923878</v>
+        <v>0.7352211284139364</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>139</v>
@@ -4284,19 +4284,19 @@
         <v>154840</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>134380</v>
+        <v>134710</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>176101</v>
+        <v>175969</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3492077060656821</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3030646619347142</v>
+        <v>0.303809235474818</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3971590069041319</v>
+        <v>0.396859979385342</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>228630</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>216588</v>
+        <v>215973</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>240189</v>
+        <v>239260</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8680047319457045</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8222880847812067</v>
+        <v>0.8199534688797162</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9118908019115513</v>
+        <v>0.9083632122661793</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>55</v>
@@ -4334,19 +4334,19 @@
         <v>59933</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>47544</v>
+        <v>47662</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>73967</v>
+        <v>74360</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.332951211758934</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2641270520076115</v>
+        <v>0.2647788715860634</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4109162863426175</v>
+        <v>0.4130954476709033</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>270</v>
@@ -4355,19 +4355,19 @@
         <v>288563</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>267302</v>
+        <v>267434</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>309023</v>
+        <v>308693</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6507922939343179</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6028409930958681</v>
+        <v>0.6031400206146582</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6969353380652858</v>
+        <v>0.6961907645251822</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>29677</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19609</v>
+        <v>20455</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41103</v>
+        <v>41482</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09114006670812283</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06022101224173463</v>
+        <v>0.06281803345333679</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.126228529137405</v>
+        <v>0.1273940877844559</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>130</v>
@@ -4480,19 +4480,19 @@
         <v>143257</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>127907</v>
+        <v>129607</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>156940</v>
+        <v>158940</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6788443342062235</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.606107050011973</v>
+        <v>0.614162415397886</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7436848443042988</v>
+        <v>0.7531638153033565</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>157</v>
@@ -4501,19 +4501,19 @@
         <v>172934</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>151158</v>
+        <v>149707</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>196210</v>
+        <v>196966</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3222458725596668</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2816694639667577</v>
+        <v>0.2789653427063752</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3656188992088533</v>
+        <v>0.3670270847618995</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>295945</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>284519</v>
+        <v>284140</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>306013</v>
+        <v>305167</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9088599332918772</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8737714708625948</v>
+        <v>0.8726059122155451</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9397789877582653</v>
+        <v>0.9371819665466634</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>60</v>
@@ -4551,19 +4551,19 @@
         <v>67773</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>54090</v>
+        <v>52090</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>83123</v>
+        <v>81423</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3211556657937766</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2563151556957011</v>
+        <v>0.2468361846966436</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3938929499880269</v>
+        <v>0.3858375846021143</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>328</v>
@@ -4572,19 +4572,19 @@
         <v>363718</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>340442</v>
+        <v>339686</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>385494</v>
+        <v>386945</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6777541274403331</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6343811007911466</v>
+        <v>0.6329729152381005</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7183305360332423</v>
+        <v>0.7210346572936248</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>172865</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>146968</v>
+        <v>146852</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>201104</v>
+        <v>199626</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1256878019828432</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1068585417763562</v>
+        <v>0.1067740754186132</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1462203184004502</v>
+        <v>0.1451453997702109</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>574</v>
@@ -4697,19 +4697,19 @@
         <v>625640</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>591528</v>
+        <v>595639</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>652132</v>
+        <v>654559</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6810124027462398</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6438810803029139</v>
+        <v>0.6483557346222826</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7098494970935557</v>
+        <v>0.7124904327172231</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>726</v>
@@ -4718,19 +4718,19 @@
         <v>798505</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>745818</v>
+        <v>752908</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>841352</v>
+        <v>844870</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3480779289039598</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3251112399089577</v>
+        <v>0.3282016809123373</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3667554435963214</v>
+        <v>0.3682892510355006</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>1202484</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1174245</v>
+        <v>1175723</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1228381</v>
+        <v>1228497</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8743121980171568</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8537796815995498</v>
+        <v>0.8548546002297891</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8931414582236438</v>
+        <v>0.8932259245813866</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>270</v>
@@ -4768,19 +4768,19 @@
         <v>293051</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>266559</v>
+        <v>264132</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>327163</v>
+        <v>323052</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3189875972537602</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2901505029064443</v>
+        <v>0.2875095672827768</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.356118919697086</v>
+        <v>0.3516442653777174</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1396</v>
@@ -4789,19 +4789,19 @@
         <v>1495535</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1452688</v>
+        <v>1449170</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1548222</v>
+        <v>1541132</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6519220710960402</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6332445564036788</v>
+        <v>0.6317107489644992</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6748887600910425</v>
+        <v>0.6717983190876629</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>17626</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11401</v>
+        <v>10934</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26385</v>
+        <v>26452</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.174404887752195</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1128038424244371</v>
+        <v>0.1081866163902922</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2610660986012955</v>
+        <v>0.26173732439637</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -5158,19 +5158,19 @@
         <v>31969</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23318</v>
+        <v>23689</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40386</v>
+        <v>41918</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4756973835323732</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3469779908183785</v>
+        <v>0.3524935467022645</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6009463726923091</v>
+        <v>0.623746413821017</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -5179,19 +5179,19 @@
         <v>49595</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38328</v>
+        <v>37096</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63855</v>
+        <v>62217</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2947364225997596</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2277747240262152</v>
+        <v>0.2204562722768595</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3794785318442725</v>
+        <v>0.3697479071235778</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>83439</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>74680</v>
+        <v>74613</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>89664</v>
+        <v>90131</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.825595112247805</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7389339013987051</v>
+        <v>0.7382626756036305</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.887196157575563</v>
+        <v>0.8918133836097077</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -5229,19 +5229,19 @@
         <v>35235</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26818</v>
+        <v>25286</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43886</v>
+        <v>43515</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5243026164676268</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.399053627307691</v>
+        <v>0.3762535861789826</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6530220091816217</v>
+        <v>0.6475064532977354</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>108</v>
@@ -5250,19 +5250,19 @@
         <v>118675</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>104415</v>
+        <v>106053</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>129942</v>
+        <v>131174</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7052635774002405</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6205214681557273</v>
+        <v>0.630252092876422</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7722252759737848</v>
+        <v>0.7795437277231405</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>15500</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8368</v>
+        <v>9040</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24084</v>
+        <v>24207</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06072402394038864</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03278238150557384</v>
+        <v>0.03541596276966973</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09435279741505068</v>
+        <v>0.09483468963807318</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -5375,19 +5375,19 @@
         <v>102443</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>90609</v>
+        <v>90677</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>114474</v>
+        <v>115184</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6410838942710277</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5670280607939209</v>
+        <v>0.5674528231377656</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7163730631368498</v>
+        <v>0.7208165296118414</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>104</v>
@@ -5396,19 +5396,19 @@
         <v>117943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98254</v>
+        <v>100100</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>136519</v>
+        <v>138790</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2841637262704879</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2367259073299664</v>
+        <v>0.2411751563261183</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3289197798729458</v>
+        <v>0.3343925190745612</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>239756</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>231172</v>
+        <v>231049</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>246888</v>
+        <v>246216</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9392759760596113</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9056472025849494</v>
+        <v>0.9051653103619282</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9672176184944273</v>
+        <v>0.9645840372303303</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>55</v>
@@ -5446,19 +5446,19 @@
         <v>57353</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>45322</v>
+        <v>44612</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>69187</v>
+        <v>69119</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3589161057289722</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2836269368631504</v>
+        <v>0.2791834703881584</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4329719392060792</v>
+        <v>0.4325471768622344</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>279</v>
@@ -5467,19 +5467,19 @@
         <v>297109</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>278533</v>
+        <v>276262</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>316798</v>
+        <v>314952</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7158362737295121</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6710802201270542</v>
+        <v>0.6656074809254386</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7632740926700339</v>
+        <v>0.7588248436738814</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>17546</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10374</v>
+        <v>11049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26241</v>
+        <v>26695</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.126472671717536</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07478071147454309</v>
+        <v>0.07964646927362912</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1891490439905524</v>
+        <v>0.1924218151844916</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -5592,19 +5592,19 @@
         <v>48846</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40169</v>
+        <v>39930</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56541</v>
+        <v>56486</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6357561329971904</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5228173462698006</v>
+        <v>0.5197146850222893</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7359129885729743</v>
+        <v>0.7352038043437531</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -5613,19 +5613,19 @@
         <v>66392</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52616</v>
+        <v>53630</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80303</v>
+        <v>80812</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.307992520669686</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2440847110307522</v>
+        <v>0.2487902828074729</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3725264236082691</v>
+        <v>0.3748887778806065</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>121185</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112490</v>
+        <v>112036</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>128357</v>
+        <v>127682</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8735273282824639</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8108509560094478</v>
+        <v>0.8075781848155085</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.925219288525457</v>
+        <v>0.9203535307263715</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -5663,19 +5663,19 @@
         <v>27985</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20290</v>
+        <v>20345</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36662</v>
+        <v>36901</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3642438670028096</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2640870114270255</v>
+        <v>0.2647961956562466</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4771826537301992</v>
+        <v>0.4802853149777107</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>158</v>
@@ -5684,19 +5684,19 @@
         <v>149171</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>135260</v>
+        <v>134751</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>162947</v>
+        <v>161933</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6920074793303139</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6274735763917303</v>
+        <v>0.6251112221193935</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7559152889692476</v>
+        <v>0.751209717192527</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>26824</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18868</v>
+        <v>17809</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36895</v>
+        <v>37039</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1711717578679398</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1204001667935078</v>
+        <v>0.113641713741661</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2354308513064829</v>
+        <v>0.2363493976396838</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>76</v>
@@ -5809,19 +5809,19 @@
         <v>87185</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75828</v>
+        <v>75169</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97759</v>
+        <v>97639</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7027840682613922</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6112385075855281</v>
+        <v>0.6059273479304785</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7880242108237739</v>
+        <v>0.7870551649320713</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -5830,19 +5830,19 @@
         <v>114009</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>96263</v>
+        <v>97196</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>130685</v>
+        <v>130467</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4060625317014172</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3428588814262363</v>
+        <v>0.3461810778423331</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4654559420827759</v>
+        <v>0.4646796065732391</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>129887</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>119816</v>
+        <v>119672</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>137843</v>
+        <v>138902</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8288282421320602</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.764569148693517</v>
+        <v>0.7636506023603162</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8795998332064925</v>
+        <v>0.886358286258339</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -5880,19 +5880,19 @@
         <v>36871</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26297</v>
+        <v>26417</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>48228</v>
+        <v>48887</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2972159317386078</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.211975789176226</v>
+        <v>0.2129448350679289</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.388761492414472</v>
+        <v>0.394072652069522</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>160</v>
@@ -5901,19 +5901,19 @@
         <v>166758</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>150082</v>
+        <v>150300</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>184504</v>
+        <v>183571</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5939374682985828</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5345440579172241</v>
+        <v>0.535320393426761</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6571411185737637</v>
+        <v>0.653818922157667</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>21787</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14399</v>
+        <v>14882</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29251</v>
+        <v>30235</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2360763431797041</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1560184964589406</v>
+        <v>0.1612532965108276</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3169437831683771</v>
+        <v>0.3276078062167413</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -6026,19 +6026,19 @@
         <v>43467</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35042</v>
+        <v>34658</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50856</v>
+        <v>51120</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6104812392926787</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4921506273634194</v>
+        <v>0.486760267437957</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7142511834059957</v>
+        <v>0.7179577343935112</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -6047,19 +6047,19 @@
         <v>65255</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53538</v>
+        <v>53665</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>76897</v>
+        <v>77197</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3991324009001454</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3274662527056253</v>
+        <v>0.3282425132311579</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4703364297648771</v>
+        <v>0.4721754068522028</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>70503</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>63039</v>
+        <v>62055</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>77891</v>
+        <v>77408</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7639236568202959</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.683056216831623</v>
+        <v>0.6723921937832588</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8439815035410595</v>
+        <v>0.8387467034891725</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -6097,19 +6097,19 @@
         <v>27735</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20346</v>
+        <v>20082</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36160</v>
+        <v>36544</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3895187607073213</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2857488165940043</v>
+        <v>0.2820422656064888</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5078493726365808</v>
+        <v>0.513239732562043</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>102</v>
@@ -6118,19 +6118,19 @@
         <v>98238</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>86596</v>
+        <v>86296</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>109955</v>
+        <v>109828</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6008675990998547</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5296635702351229</v>
+        <v>0.5278245931477972</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6725337472943747</v>
+        <v>0.6717574867688421</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>4042</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1030</v>
+        <v>992</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9987</v>
+        <v>9926</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04267959392731308</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01087024834525267</v>
+        <v>0.01047247162986779</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1054415801424756</v>
+        <v>0.1047933389172396</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -6243,19 +6243,19 @@
         <v>50204</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41684</v>
+        <v>41610</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57302</v>
+        <v>57863</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7125087246381948</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5915836521626182</v>
+        <v>0.5905398103515808</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8132451111925955</v>
+        <v>0.8212048504851427</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -6264,19 +6264,19 @@
         <v>54246</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42911</v>
+        <v>43119</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68181</v>
+        <v>67718</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3284122230551116</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2597838631789543</v>
+        <v>0.2610443320454504</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.412770760093075</v>
+        <v>0.4099710370645368</v>
       </c>
     </row>
     <row r="20">
@@ -6293,19 +6293,19 @@
         <v>90675</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>84730</v>
+        <v>84791</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>93687</v>
+        <v>93725</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9573204060726869</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8945584198575243</v>
+        <v>0.8952066610827601</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9891297516547473</v>
+        <v>0.9895275283701322</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -6314,19 +6314,19 @@
         <v>20257</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13159</v>
+        <v>12598</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28777</v>
+        <v>28851</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2874912753618052</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1867548888074045</v>
+        <v>0.1787951495148571</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4084163478373818</v>
+        <v>0.4094601896484192</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>109</v>
@@ -6335,19 +6335,19 @@
         <v>110932</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>96997</v>
+        <v>97460</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>122267</v>
+        <v>122059</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6715877769448884</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5872292399069252</v>
+        <v>0.5900289629354628</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7402161368210459</v>
+        <v>0.7389556679545496</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>22213</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13911</v>
+        <v>14490</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33920</v>
+        <v>34444</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09692797684065393</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06070077364918382</v>
+        <v>0.063227895670455</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1480125141818502</v>
+        <v>0.1503007373806266</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>82</v>
@@ -6460,19 +6460,19 @@
         <v>94762</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>82719</v>
+        <v>82523</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>105752</v>
+        <v>105756</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6764404821764104</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5904725335046946</v>
+        <v>0.5890735322415601</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7548888108928292</v>
+        <v>0.7549215799530244</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>101</v>
@@ -6481,19 +6481,19 @@
         <v>116975</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>100246</v>
+        <v>98875</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>136595</v>
+        <v>136985</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3167840153286471</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2714794924501543</v>
+        <v>0.2677659516484784</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3699165242256601</v>
+        <v>0.3709723632639292</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>206955</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>195248</v>
+        <v>194724</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>215257</v>
+        <v>214678</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9030720231593461</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8519874858181498</v>
+        <v>0.8496992626193735</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9392992263508162</v>
+        <v>0.9367721043295449</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>43</v>
@@ -6531,19 +6531,19 @@
         <v>45327</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>34337</v>
+        <v>34333</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>57370</v>
+        <v>57566</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3235595178235896</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2451111891071708</v>
+        <v>0.2450784200469753</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4095274664953054</v>
+        <v>0.4109264677584393</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>230</v>
@@ -6552,19 +6552,19 @@
         <v>252283</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>232663</v>
+        <v>232273</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>269012</v>
+        <v>270383</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6832159846713529</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6300834757743398</v>
+        <v>0.6290276367360708</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7285205075498457</v>
+        <v>0.7322340483515214</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>43545</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33024</v>
+        <v>32543</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56276</v>
+        <v>57302</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1502076038557949</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1139170854756469</v>
+        <v>0.1122559670110966</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1941216552633169</v>
+        <v>0.1976611124572428</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>113</v>
@@ -6677,19 +6677,19 @@
         <v>133998</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>121653</v>
+        <v>119721</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>147249</v>
+        <v>146527</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7174964429701388</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6513959699393821</v>
+        <v>0.6410495339856571</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7884467216102655</v>
+        <v>0.7845830974902492</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>157</v>
@@ -6698,19 +6698,19 @@
         <v>177543</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>157956</v>
+        <v>154679</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>199917</v>
+        <v>198879</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3724755312882609</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.33138287939883</v>
+        <v>0.3245082879964611</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4194148864344482</v>
+        <v>0.4172362828159298</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>246354</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>233623</v>
+        <v>232597</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>256875</v>
+        <v>257356</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8497923961442051</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8058783447366831</v>
+        <v>0.8023388875427573</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8860829145243532</v>
+        <v>0.8877440329889035</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -6748,19 +6748,19 @@
         <v>52760</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39509</v>
+        <v>40231</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>65105</v>
+        <v>67037</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2825035570298612</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2115532783897351</v>
+        <v>0.2154169025097508</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3486040300606179</v>
+        <v>0.3589504660143429</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>287</v>
@@ -6769,19 +6769,19 @@
         <v>299114</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>276740</v>
+        <v>277778</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>318701</v>
+        <v>321978</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6275244687117392</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5805851135655518</v>
+        <v>0.5827637171840702</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.66861712060117</v>
+        <v>0.6754917120035389</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>169085</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>144822</v>
+        <v>145464</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>194046</v>
+        <v>193354</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1245248439097295</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1066559123807741</v>
+        <v>0.107128787411487</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1429080253099005</v>
+        <v>0.1423982180745963</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>521</v>
@@ -6894,19 +6894,19 @@
         <v>592873</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>561459</v>
+        <v>565324</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>622053</v>
+        <v>620762</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.661395897553089</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6263506872068259</v>
+        <v>0.6306628538798604</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.693948504842934</v>
+        <v>0.6925074930843803</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>690</v>
@@ -6915,19 +6915,19 @@
         <v>761958</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>718557</v>
+        <v>713882</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>809478</v>
+        <v>808079</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3380116568486318</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3187584847664577</v>
+        <v>0.3166847251738127</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.359091839875714</v>
+        <v>0.3584711424427872</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>1188754</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1163793</v>
+        <v>1164485</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1213017</v>
+        <v>1212375</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8754751560902705</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8570919746900995</v>
+        <v>0.8576017819254035</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.893344087619226</v>
+        <v>0.8928712125885129</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>292</v>
@@ -6965,19 +6965,19 @@
         <v>303524</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>274344</v>
+        <v>275635</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>334938</v>
+        <v>331073</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.338604102446911</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3060514951570661</v>
+        <v>0.3074925069156194</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3736493127931743</v>
+        <v>0.3693371461201393</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1433</v>
@@ -6986,19 +6986,19 @@
         <v>1492279</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1444759</v>
+        <v>1446158</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1535680</v>
+        <v>1540355</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6619883431513682</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6409081601242862</v>
+        <v>0.641528857557213</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6812415152335423</v>
+        <v>0.6833152748261874</v>
       </c>
     </row>
     <row r="30">
